--- a/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.35404723213891</v>
+        <v>-3.507427205112212</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.389938511673015</v>
+        <v>-3.219520520565267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.275980200189775</v>
+        <v>-3.357188581419043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.446668013646524</v>
+        <v>-1.553677292679241</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5298027483174133</v>
+        <v>-0.4355891552250001</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.615158156189411</v>
+        <v>-1.407301670690749</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.950449842313151</v>
+        <v>-2.014126179248768</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.307668547782471</v>
+        <v>-1.339660244372576</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.893077430439658</v>
+        <v>-1.899372080072835</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.384998325461978</v>
+        <v>0.3255534110479122</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9763611306561913</v>
+        <v>1.283813131650667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.578958227618395</v>
+        <v>1.781539696770817</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.085394785951538</v>
+        <v>2.075647080440112</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.722016120881853</v>
+        <v>3.703086944681721</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.048967664553982</v>
+        <v>3.317431796392017</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6095019720717926</v>
+        <v>0.643853209932655</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.728894543579935</v>
+        <v>1.574999800096996</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.48542897403531</v>
+        <v>1.458624704490693</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8512858392729533</v>
+        <v>-0.8646311875737736</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8606256480478303</v>
+        <v>-0.8123031377173968</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9024896669631909</v>
+        <v>-0.9275800162342954</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6798321394018044</v>
+        <v>-0.6935148245429138</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2890132714390103</v>
+        <v>-0.2372325275361941</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7812259114030949</v>
+        <v>-0.7214236995185804</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6672765791102753</v>
+        <v>-0.6906913025169832</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4694051657217299</v>
+        <v>-0.4798361277624278</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6957658288195332</v>
+        <v>-0.7160438379629753</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4293975072819142</v>
+        <v>0.3303680050502865</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8545643233885792</v>
+        <v>1.00726673364154</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.16280728741701</v>
+        <v>1.356828143834434</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.497971740571514</v>
+        <v>2.432308482543034</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.280034594124032</v>
+        <v>4.111034154923066</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.198727578679183</v>
+        <v>3.881020648152758</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4700032899068854</v>
+        <v>0.4729701814800124</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.096939370462596</v>
+        <v>0.9783216800689227</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.088829089408477</v>
+        <v>0.9463502783466816</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.6848779049928833</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.5115044650615099</v>
+        <v>0.5115044650615093</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2108106747486241</v>
@@ -878,7 +878,7 @@
         <v>-0.7181881558775421</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2840126118452926</v>
+        <v>0.284012611845293</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8625684414235122</v>
+        <v>-0.9157930901568292</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.083960418886627</v>
+        <v>-2.218758159655403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.670958919623379</v>
+        <v>-1.603177995023255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.7965213551439</v>
+        <v>-1.858541785287269</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.926222234862585</v>
+        <v>-2.052359864798007</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.183358003879821</v>
+        <v>-0.9966932991486704</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8380691173500725</v>
+        <v>-0.8267825337900147</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.758241050769284</v>
+        <v>-1.744387323392723</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.8949479472546337</v>
+        <v>-0.9485225202441333</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.487181541502466</v>
+        <v>2.548639951732164</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6391924215188586</v>
+        <v>0.4975055900265776</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.4179099200133</v>
+        <v>2.820580994683389</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.976712145422022</v>
+        <v>1.071371963689103</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.700232062486514</v>
+        <v>0.6991027532506997</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.516522439178684</v>
+        <v>2.761612338522851</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.41608167439767</v>
+        <v>1.386049281783141</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.172668104486354</v>
+        <v>0.2298823291206508</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.894876361083087</v>
+        <v>1.961049547220048</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.3715743494002806</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.277512148420884</v>
+        <v>0.2775121484208836</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1109141248475633</v>
@@ -983,7 +983,7 @@
         <v>-0.3778613719633894</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1494279657614772</v>
+        <v>0.1494279657614774</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3476548799138346</v>
+        <v>-0.4037789269867865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7871359599796686</v>
+        <v>-0.8395250662045783</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6883648218782558</v>
+        <v>-0.711583706859763</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6921863324216585</v>
+        <v>-0.7085425975054364</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7662270406996849</v>
+        <v>-0.7930781436886148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5249080009781208</v>
+        <v>-0.4726974090760888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3532419867290492</v>
+        <v>-0.365961261147769</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7007491901371707</v>
+        <v>-0.6996381237437099</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4160575749111472</v>
+        <v>-0.4326364780286324</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.078329866414986</v>
+        <v>1.960408974382161</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6254649537248774</v>
+        <v>0.4024323958210404</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.882614132563806</v>
+        <v>2.19008524658903</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9212079253874754</v>
+        <v>1.004108776606489</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.793066845065473</v>
+        <v>0.6885990801328861</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.580569404796818</v>
+        <v>2.442834378363947</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.093357853942476</v>
+        <v>0.9939062625675064</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.157549794132933</v>
+        <v>0.1992163449647832</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.364805541809228</v>
+        <v>1.457587369927294</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.27230539581242</v>
+        <v>-1.289915508725004</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9688619420094333</v>
+        <v>-0.9821602667181205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.233463021052428</v>
+        <v>-0.1769902041195306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.074963320800726</v>
+        <v>-2.105766487536498</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.85500294474098</v>
+        <v>-3.669166181466633</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.643216096918549</v>
+        <v>-2.625253950335112</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.399672032676257</v>
+        <v>-1.503142837378571</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.004404174243388</v>
+        <v>-1.95228072796553</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.057304605484439</v>
+        <v>-0.9794125387298352</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6244158656686303</v>
+        <v>0.5979146531692561</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.119217907499822</v>
+        <v>1.208747411764543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.510645655355641</v>
+        <v>2.71326081096601</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.327271054241175</v>
+        <v>1.137118161965856</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.9809744130731861</v>
+        <v>-0.9916773450591378</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7454202557081981</v>
+        <v>0.6883023632549958</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5376422225729505</v>
+        <v>0.5823491675260304</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.274902736767761</v>
+        <v>-0.2724888553909364</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.078006865609821</v>
+        <v>1.200185532267383</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8655701585545909</v>
+        <v>-0.8799952088356183</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6919550547309098</v>
+        <v>-0.6834692355205056</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2746967232337397</v>
+        <v>-0.2911266799213966</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6043347578350455</v>
+        <v>-0.6083195326252454</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9650000656960186</v>
+        <v>-0.9570592680078716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6904798392046506</v>
+        <v>-0.6836633314360803</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.609727487990024</v>
+        <v>-0.6229208702022966</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8343429324838015</v>
+        <v>-0.829080174475389</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.472624091725291</v>
+        <v>-0.4293984002329133</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.480065675895955</v>
+        <v>2.046817452029794</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.626878209401331</v>
+        <v>3.373989768800124</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.535954312698499</v>
+        <v>6.218111419929312</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8864667450167426</v>
+        <v>0.7105675322038345</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.4110552766752643</v>
+        <v>-0.4273904766042821</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5619563170950188</v>
+        <v>0.3689857430829572</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.43640729414671</v>
+        <v>0.5339595167568049</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1359512619547524</v>
+        <v>-0.1581920147980174</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8490860782789161</v>
+        <v>1.01230454727874</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.906336525709253</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.05781890735071828</v>
+        <v>-0.05781890735071793</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6004807648610718</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.641589784543372</v>
+        <v>-2.657349795746714</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.640328586831677</v>
+        <v>-3.888426581170353</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.142038575831725</v>
+        <v>-2.176086728269167</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.173768846806011</v>
+        <v>-1.056823863327971</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.980345943250166</v>
+        <v>-1.651365281166197</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.304135009095079</v>
+        <v>-1.533960913114068</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.191312404551309</v>
+        <v>-1.308917603990176</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.05270992886636</v>
+        <v>-2.175769747015963</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.063432625200241</v>
+        <v>-1.120480298369843</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.103296426377892</v>
+        <v>0.9502381107170998</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.7117514516559108</v>
+        <v>-0.7851956905125147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.784463810282781</v>
+        <v>1.757583886935886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.201628272671346</v>
+        <v>2.316984139484273</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.287795236155873</v>
+        <v>1.409368310827985</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.485667156371089</v>
+        <v>1.470354496101312</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.086761682561433</v>
+        <v>1.123468692868753</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03661795802532594</v>
+        <v>-0.03918742112844621</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.245929464636868</v>
+        <v>1.223685922444085</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.8544255534326517</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.02591460177453647</v>
+        <v>-0.02591460177453631</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3651799396650124</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7610941727651582</v>
+        <v>-0.7726581790465654</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6296237964403353</v>
+        <v>-0.655800731751332</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5545891226061915</v>
+        <v>-0.4860802038315177</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.719370096697061</v>
+        <v>-0.6598689462614765</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4942528926202756</v>
+        <v>-0.5429603703964021</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4720346934409102</v>
+        <v>-0.4883898241609957</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7760790922385159</v>
+        <v>-0.7891459580501801</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3822573283432677</v>
+        <v>-0.4116130967108514</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.042684473756067</v>
+        <v>0.7873321055624228</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2845275471030032</v>
+        <v>-0.2737706077557875</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.54390092166125</v>
+        <v>1.463840206719147</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.452298487336853</v>
+        <v>2.668482642976404</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.443142089739557</v>
+        <v>1.861401896279684</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.777630806654335</v>
+        <v>1.772236280054277</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8807405809470938</v>
+        <v>0.8506602114253498</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1019223879290439</v>
+        <v>0.0880492459103136</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9854361720936105</v>
+        <v>1.017539259154092</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.6045782927921637</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.2746653759086904</v>
+        <v>0.2746653759086901</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.133431951495898</v>
+        <v>-2.036042440853635</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.10461152155181</v>
+        <v>-1.855345043477651</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8141983796981306</v>
+        <v>-0.7642002088852383</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.482634182700668</v>
+        <v>-2.403111452211212</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.480212752195011</v>
+        <v>-2.510655687806319</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.947124201899831</v>
+        <v>-1.823403339296381</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.642952947580122</v>
+        <v>-1.78916999972215</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.730916576192795</v>
+        <v>-1.718026046722846</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.8555962985766031</v>
+        <v>-0.8567521943149824</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7504547223030619</v>
+        <v>0.7516938075964713</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.147176863727493</v>
+        <v>1.010613882190745</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.263974359221312</v>
+        <v>2.455401189344863</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6414747354867835</v>
+        <v>0.8279124576759049</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.6731143173567377</v>
+        <v>0.6401753932851029</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9803788913021357</v>
+        <v>1.158068375553912</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4430685678756617</v>
+        <v>0.4010896792455939</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4672030257366219</v>
+        <v>0.4285726994653963</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.357124456587832</v>
+        <v>1.328237683646087</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.4023981881907932</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.182813129320201</v>
+        <v>0.1828131293202008</v>
       </c>
     </row>
     <row r="32">
@@ -1638,27 +1638,29 @@
       <c r="C32" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4765158327669374</v>
+        <v>-0.4260553039175384</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.8990072988891258</v>
+        <v>-0.8874549343147653</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9074409651321484</v>
+        <v>-0.8789073702728658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6671061187762599</v>
+        <v>-0.6811767706416459</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.7970570691064303</v>
+        <v>-0.8187073862213534</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7947172265872366</v>
+        <v>-0.7897568406788964</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3806995205319596</v>
+        <v>-0.380126722209207</v>
       </c>
     </row>
     <row r="33">
@@ -1669,29 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.951177745017427</v>
-      </c>
-      <c r="D33" s="6" t="inlineStr"/>
+        <v>1.990099620718273</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>2.275176307363605</v>
+      </c>
       <c r="E33" s="6" t="n">
-        <v>5.694451347882394</v>
+        <v>4.525826610374824</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.040285886287415</v>
+        <v>1.483952389494963</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9645321524403555</v>
+        <v>1.231004949024868</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.528689955384684</v>
+        <v>2.049695246738966</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5254904363455357</v>
+        <v>0.6785346251175359</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7723288646227212</v>
+        <v>0.5502543134610598</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.529469073840113</v>
+        <v>1.491616599596702</v>
       </c>
     </row>
     <row r="34">
@@ -1712,7 +1716,7 @@
         <v>0.04030289913463363</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-0.08584694321171127</v>
+        <v>-0.08584694321171144</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.3051305836852115</v>
@@ -1721,7 +1725,7 @@
         <v>-0.2510461242824801</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.04452646433759019</v>
+        <v>-0.04452646433759028</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.233169113953976</v>
@@ -1730,7 +1734,7 @@
         <v>-0.1142915856298311</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.06426875764850032</v>
+        <v>-0.0642687576485005</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.50815049361819</v>
+        <v>-1.695338242388742</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.503638750350287</v>
+        <v>-1.496432880589794</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.093759973924183</v>
+        <v>-2.0367282803564</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.058785043753104</v>
+        <v>-1.037428305807065</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.350713772782922</v>
+        <v>-1.340759634355122</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.33993892094333</v>
+        <v>-1.444933606294805</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.7536247124531859</v>
+        <v>-0.8235654810583377</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.250421410320424</v>
+        <v>-1.123381880865307</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.109978946396871</v>
+        <v>-1.079543224192069</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.663347324725966</v>
+        <v>1.582083158987961</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.965309174067207</v>
+        <v>1.948261506215741</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.9010340238333527</v>
+        <v>0.9200578715560459</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.73887275416377</v>
+        <v>1.82243964700384</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.824606811368653</v>
+        <v>0.842562155226463</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.8915165400278967</v>
+        <v>0.796832999056458</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.291197136585515</v>
+        <v>1.310280725755685</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.8196657377186873</v>
+        <v>0.8997213125895132</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.6242120827722096</v>
+        <v>0.6406581612029884</v>
       </c>
     </row>
     <row r="37">
@@ -1817,7 +1821,7 @@
         <v>0.05048254147780204</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.107530027975173</v>
+        <v>-0.1075300279751732</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.384965278018205</v>
@@ -1826,7 +1830,7 @@
         <v>-0.3167301024452561</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.05617641639152039</v>
+        <v>-0.0561764163915205</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2932009886921446</v>
@@ -1835,7 +1839,7 @@
         <v>-0.1437171730749632</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.08081543462173799</v>
+        <v>-0.08081543462173819</v>
       </c>
     </row>
     <row r="38">
@@ -1851,16 +1855,14 @@
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="n">
-        <v>-0.844141989193042</v>
+        <v>-0.9050531167182236</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6612724482569882</v>
-      </c>
-      <c r="J38" s="6" t="n">
-        <v>-0.895443047999397</v>
-      </c>
+        <v>-0.6906532393790966</v>
+      </c>
+      <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>-0.7487312133048708</v>
+        <v>-0.7293324468577764</v>
       </c>
     </row>
     <row r="39">
@@ -1875,15 +1877,15 @@
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
-      <c r="H39" s="6" t="inlineStr"/>
+      <c r="H39" s="6" t="n">
+        <v>3.328327737833607</v>
+      </c>
       <c r="I39" s="6" t="n">
-        <v>4.295050758964555</v>
-      </c>
-      <c r="J39" s="6" t="n">
-        <v>3.383136230011617</v>
-      </c>
+        <v>4.651485621460058</v>
+      </c>
+      <c r="J39" s="6" t="inlineStr"/>
       <c r="K39" s="6" t="n">
-        <v>2.077993750553512</v>
+        <v>2.622949291506847</v>
       </c>
     </row>
     <row r="40">
@@ -1913,7 +1915,7 @@
         <v>-0.003961661112951822</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.1102630226320052</v>
+        <v>-0.1102630226320053</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.3632132013757164</v>
@@ -1933,31 +1935,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.536326834774982</v>
+        <v>-3.908766223866364</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.759497320109127</v>
+        <v>-2.939751824526502</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.044095483800698</v>
+        <v>-3.437119208658816</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.6844781073512582</v>
+        <v>-0.6877018190216909</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9852090149284854</v>
+        <v>-0.9808458695589375</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.439565190871716</v>
+        <v>-1.313072515079812</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.271986427765419</v>
+        <v>-1.404963567532441</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.289040162938331</v>
+        <v>-1.277492287164112</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.424948889072949</v>
+        <v>-1.340251493363031</v>
       </c>
     </row>
     <row r="42">
@@ -1968,31 +1970,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.3867977159785601</v>
+        <v>-0.3897770676989583</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.9548586117326964</v>
+        <v>0.6826923870920258</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.3715643366348352</v>
+        <v>0.2736337065984951</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.168117586211935</v>
+        <v>1.379001269746426</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.6430569967572972</v>
+        <v>0.6490277510504832</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.3445536988383034</v>
+        <v>0.3366080051135535</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.3790950542435774</v>
+        <v>0.3525648248363623</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.5150545887789325</v>
+        <v>0.6258381038108635</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.2260647964225435</v>
+        <v>0.1979973833619929</v>
       </c>
     </row>
     <row r="43">
@@ -2018,7 +2020,7 @@
         <v>-0.01223841087859735</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.3406258478987093</v>
+        <v>-0.3406258478987095</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.5085553782757383</v>
@@ -2044,11 +2046,9 @@
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="inlineStr"/>
-      <c r="J44" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J44" s="6" t="inlineStr"/>
       <c r="K44" s="6" t="n">
-        <v>-0.9271435116116162</v>
+        <v>-0.9057074280487275</v>
       </c>
     </row>
     <row r="45">
@@ -2065,11 +2065,9 @@
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr"/>
       <c r="I45" s="6" t="inlineStr"/>
-      <c r="J45" s="6" t="n">
-        <v>4.126549081010802</v>
-      </c>
+      <c r="J45" s="6" t="inlineStr"/>
       <c r="K45" s="6" t="n">
-        <v>1.602107262724457</v>
+        <v>1.231992739322507</v>
       </c>
     </row>
     <row r="46">
@@ -2099,7 +2097,7 @@
         <v>-0.548258206620697</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.1323261403962916</v>
+        <v>-0.1323261403962914</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.2306311169269682</v>
@@ -2108,7 +2106,7 @@
         <v>-0.6574632925738183</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.0579328183261868</v>
+        <v>-0.05793281832618645</v>
       </c>
     </row>
     <row r="47">
@@ -2119,31 +2117,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.014748460152798</v>
+        <v>-1.032348722827459</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.316559077025508</v>
+        <v>-1.386569472342259</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.5980083940780869</v>
+        <v>-0.6750172553238825</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.6783059571732468</v>
+        <v>-0.7369185664447607</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.079415942113337</v>
+        <v>-1.119119366164959</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.744401389555382</v>
+        <v>-0.6984101083121081</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.6874732829795042</v>
+        <v>-0.6455348245999226</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.060872418085701</v>
+        <v>-1.072391503843545</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.5264833950831016</v>
+        <v>-0.4856073597625907</v>
       </c>
     </row>
     <row r="48">
@@ -2154,31 +2152,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.2174337089501505</v>
+        <v>0.2322997633754739</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.1691663878851074</v>
+        <v>-0.1938173589363522</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.6784623715310255</v>
+        <v>0.6910447912188673</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.5550359649537686</v>
+        <v>0.5785031612495072</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.07588958489533514</v>
+        <v>0.05264429045336145</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.4471347046056806</v>
+        <v>0.485539812396803</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.2062950466537603</v>
+        <v>0.1874980308100096</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.2447266064799349</v>
+        <v>-0.2273423049885029</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.3643482851910915</v>
+        <v>0.4054713680889056</v>
       </c>
     </row>
     <row r="49">
@@ -2204,7 +2202,7 @@
         <v>-0.3279754325300903</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.07915927679225154</v>
+        <v>-0.07915927679225143</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1373512787071909</v>
@@ -2213,7 +2211,7 @@
         <v>-0.3915491766301832</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.03450161791798829</v>
+        <v>-0.03450161791798809</v>
       </c>
     </row>
     <row r="50">
@@ -2224,31 +2222,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5142072504914484</v>
+        <v>-0.4908125755958491</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6713478158528916</v>
+        <v>-0.6557907139155533</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3109763299690645</v>
+        <v>-0.3390271656327623</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3369390505422589</v>
+        <v>-0.3561412878938148</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5481349543971563</v>
+        <v>-0.5658032456565815</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3564418519546159</v>
+        <v>-0.3473485274165343</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3552900113942863</v>
+        <v>-0.340295059886613</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5594935695478733</v>
+        <v>-0.5582885924475061</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2724115405632348</v>
+        <v>-0.2577636860037211</v>
       </c>
     </row>
     <row r="51">
@@ -2259,31 +2257,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1631975440015032</v>
+        <v>0.1599839969158986</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1198420066871283</v>
+        <v>-0.06886185505148487</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4762799075908181</v>
+        <v>0.5349567743197722</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4220885273588207</v>
+        <v>0.4537656963558626</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.08247260734904781</v>
+        <v>0.04270484048103939</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3620605267247314</v>
+        <v>0.4010278329897632</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1449133362257181</v>
+        <v>0.1327538764747536</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1594432949287819</v>
+        <v>-0.1543053854279316</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2591384422228746</v>
+        <v>0.2860145860890275</v>
       </c>
     </row>
     <row r="52">
